--- a/data/autores/autores_juncao/fullname_all.xlsx
+++ b/data/autores/autores_juncao/fullname_all.xlsx
@@ -423,7 +423,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ID_LATTES</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Atualmente cursa Ciência da Computação pela Universidade Federal de Santa Maria. Possui Curso Técnico em Informática pela Escola Técnica Estadual 25 de Julho (2016). Foi bolsista de Iniciação Científica CNPq/EM da Universidade Regional do Noroeste do Estado do Rio Grande do Sul (sob orientação do Dr. Luiz Antônio Rasia, líder do Grupo de Pesquisa em Projetos em Sistema Mecânicos Mecatrônica e Robótica). Participa do projeto Pesquisa e Desenvolvimento em Redes de Sensores para Monitoramento de Linhas Férreas em Bitola Métrica (GMOB/UFSM). Desenvolve projetos nos seguintes temas: inclusão digital, acessibilidade, sensores piezoresitivos e processamento de sinais.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação pela primeira turma de Bacharéis em sistemas de informação da Universidade Federal do Rio Grande (FURG) e mestrado em engenharia de computação também pela federal de Rio Grande. PhD pela Universidad Pública de Navarra (Pamplona, Espanha), juntamente ao grupo GIARA, coordenado pelo Prof. Dr. Humberto Bustince. Tem experiência na área de Sistemas de Informação, com ênfase em Grafos, Lógica fuzzy e Mineração de dados.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -549,7 +549,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Informatica: Sistemas de Informação pela Universidade Regional do Noroeste do Estado do Rio Grande do Sul (2005) e Especialização em Governança em Tecnologia da Informação pelo SENAC-RS. Atualmente é Supervisor TI - Bruning Tecnometal, instrutor de espanhol - CIPEX Idiomas e professor de Análise e Projeto de Sistemas e Sistemas Operacionais - Colégio Evangélico Panambi. Tem experiência na área de Ciência da Computação, atuando principalmente nos seguintes temas: analise e desenvolvimento de sistemas, treinamento de programadores e analistas, análise de novas tecnologias e sua aplicação na organização.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Renata Galante tem mestrado e doutorado em Ciência da Computação pela Universidade Federal do Rio Grande do Sul. Professora associada no Instituto de Informática da Universidade Federal do Rio Grande do Sul (UFRGS)). Diretora Administrativa da Sociedade Brasileira de Computação (SBC). Coordenadora do Curso de Especialização em Big Data e Data Science, do Instituto de Informática da UFRGS. Está envolvida com atividades de extensão, ensino de graduação e pós-graduação e orientação de alunos de mestrado e doutorado. Tem trabalhado em diversos projetos de pesquisa financiados por agências de fomento como CNPq, Finep, Fapergs, Petrobrás e Ministério da Saúde. Desenvolve pesquisa nas áreas de Banco de Dados, Big Data, Data Science, Redes Sociais e Cidades Inteligentes.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>possui graduação em Ciências da Computação pela UNISC (1997-2002), mestrado em Ciências da Computação pela UFRGS (2002-2005) e doutorado também pela UFRGS (2005-2011). Como áreas de pesquisas principais salienta-se a integração de dados e mecanismos de busca estruturada para a Web. Já atuou como analista de sistemas no Banrisul e como docente nos seguintes temas: programação, banco de dados e engenharia de software. Atualmente possui o cargo de professor adjunto na UFSM.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Acadêmico do Curso de Ciência da Computação na Universidade Federal do Pampa (UNIPAMPA)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -687,11 +687,7 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>11-01-2010</t>
@@ -716,7 +712,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Estatística pela Universidade Federal do Paraná (2016) e Mestrado pelo programa de Métodos Numéricos em Engenharia (2019). Tem experiência na área de Probabilidade e Estatística, com ênfase em Probabilidade e Estatística</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -784,11 +780,7 @@
           <t>PR</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>23-03-2012</t>
@@ -813,7 +805,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Discente de Ciência da Computação na Universidade Tecnológica Federal do Paraná - UTFPR</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -879,7 +871,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui experiência em Ciência da Computação com ênfase em Gestão de Qualidade, Engenharia de Requisitos e Teste de Software. Mestrado em Engenharia de Computação pela Escola Politécnica da Universidade de Pernambuco - POLI/UPE (2014). Bacharelado em Sistemas de Informação pela Universidade de Pernambuco - UPE (2011). Atualmente é candidato ao título de doutor em Ciência da Computação na University of Western Ontario (2019). Interesses de Pesquisa: Engenharia de Requisitos, Arquitetura e Métricas de Software, Big Data e Sistemas de Informação.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -949,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>É formada em Sistemas de Informação na Universidade Federal de Santa Catarina. Tem experiência em desenvolvimento Web e teste de software.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -984,7 +976,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Concluiu a Graduação em Ciência da Computação, em 1997, pela Universidade Federal de Campina Grande (UFCG) e Mestrado em Informática, em 2000, pela mesma instituição. Em 2009, concluiu o Doutorado na Universidade Federal de Pernambuco (UFPE), tendo realizado Doutorado-Sanduíche na Université de Versailles, na França. Atualmente é Professor Associado do Departamento de Sistemas e Computação (DSC), da Universidade Federal de Campina Grande (UFCG). Tem experiência na área de Ciência da Computação, com ênfase em Bancos de Dados, atuando principalmente nos seguintes temas: Qualidade de Dados, Integração de Dados, Descoberta de Conhecimento e Big Data.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1019,7 +1011,8 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação como Bacharel em Ciências da Computação pela Universidade Federal de Santa Catarina (2004) e Mestre em Ciências da Computação, área de Banco de Dados (2007). 
+Tem experiência na área de Engenharia de Software e Bancos de Dados, com ênfase em comparação e integração de documentos e bancos de dados XML. Atualmente cursando doutorado na área de Bancos de Dados, com ênfase em recuperação de expertise (Expertise Retrieval).</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1054,7 +1047,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Mestrando no Programa de Pós-Graduação em Computação (PPGC) da Universidade Federal do Rio Grande do Sul com término previsto para 12/2018. Bacharel em Ciência da Computação pela Universidade Federal do Rio Grande do Sul (UFRGS - 2016/2). Experiência internacional pelo programa BRAFITEC/CAPES, pelo período de um ano na École Nationale Superiéure d'Ingénieurs de Caen (França) entre setembro de 2014 e agosto de 2015.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1089,7 +1082,9 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Professor adjunto na Universidade Federal de Santa Maria (UFSM), departamento de computação aplicada (DCOM).
+Possui Doutorado em Ciência da Computação, na área de Computação Científica, subáreas Séries Temporais, Modelagem e Simulação de Sistemas, pela PUCRS (2016) realizado em cooperação com o Institut national de recherche en informatique et en automatique (INRIA) e o Institut Polytechnique de Grenoble (INP), na França. Possui Mestrado em Ciência da Computação (2012) e graduação em Sistemas de Informação (2009), ambos pela PUCRS. Membro da ACM (9928281). Colaborador do Performance Evaluation Group (PEG).
+Tem experiência na criação de modelos estocásticos para predição de séries temporais, mineração de dados, e algoritmos de aprendizagem de máquina para dados geológicos. Áreas de interesse: Modelagem Estocástica, Séries Temporais, Aprendizado de Máquina, Mineração de Dados, Ciência dos Dados, Matemática da Computação, e Engenharia de Software.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1124,7 +1119,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Atualmente é Técnico em Tecnologia da Informação no Instituto Federal Catarinense - Campus Camboriú. Mestrando em Ciência da Computação no Centro de Informática da Universidade Federal de Pernambuco (Em andamento). Possui Graduação em Sistemas de Informação no Instituto Federal Catarinense - Campus Camboriú (2013). Faz parte da Gestão do Instituto Federal Catarinense - Campus Camboriú no cargo de Coordenador de Desenvolvimento Web (2013-2016) e Coordenador de Suporte em Informática (desde 2016). Atua na área de Computação com ênfase em Governança de TI e Desenvolvimento de Sistemas.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1159,7 +1154,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Bacharelado em Ciência da Computação pela Universidade Federal de Pelotas (2005) e mestrado em Ciência da Computação pela Pontifícia Universidade Católica do Rio Grande do Sul (2008). Atualmente é Analista de Tecnologia da Informação da Universidade de Brasília.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1194,7 +1189,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Engenharia de Software pela Universidade Federal do Pampa (2013). Atualmente é professor do ensino básico, técnico e tecnológico do Instituto Federal Farroupilha. Tem experiência na área de Ciência da Computação, com ênfase em Engenharia de Software, atuando principalmente nos seguintes temas: entidades nomeadas, inspeção de software, refatoração, e padrões de projeto.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1229,7 +1224,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Mestrando em Ciências da Computação e Graduado em Curso Superior de Tecnologia em Sistemas para Internet pela Universidade Federal de Santa Maria (UFSM).</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1299,7 +1294,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Doutorando do Programa de Pós-graduação em Ciência da Computação da Universidade Federal de Uberlândia. Mestre pelo Programa de Pós-graduação em Ciência da Computação da Universidade Federal de Uberlândia (2017). Possui graduação em Sistemas de Informação pela Universidade Federal de Viçosa (2014). Tem experiência na área de Ciência da Computação, com ênfase em Sistemas de Computação, Cloud Computing, SDN, NFV e redes multimídia.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1334,7 +1329,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciências da Computação pela Universidade Federal de Santa Catarina (2001), mestrado em Ciências da Computação pela Universidade Federal de Santa Catarina (2003) e doutorado em Engenharia e Gestão do Conhecimento pela Universidade Federal de Santa Catarina (2015). Atualmente é professora efetiva da Universidade do Estado de Santa Catarina.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1369,7 +1364,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Membro do Banco de Avaliadores do SINAES - Ministério da Educação e docente na Universidade Regional Integrada do Alto Uruguai e das Missões - campus de Santo Ângelo. Possui mestrado em Ciências da Computação pela Universidade Federal do Rio Grande do Sul e graduação em Informática com Ênfase em Análise de Sistemas pela Universidade Regional do Noroeste do Estado do Rio Grande do Sul. Tem experiência na área de Ciência da Computação, com ênfase em Banco de Dados. Lidera o Grupo de Pesquisa INTEC - Integração de Tecnologias Computacionais. Desenvolve projetos de pesquisa e extensão em parceira com órgãos governamentais e empresas privadas, atuando principalmente nas seguintes áreas: Interface Humano-Computador, Informática na Educação e Tecnologias Assistivas. Membro do Corpo Editorial da Revista Eletrônica Vivências.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1404,7 +1399,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Sistemas de Informação pelo Centro Federal de Educação Tecnológica Celso Suckow da Fonseca (2018).</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1439,7 +1434,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>possui graduação em Engenharia de Computação pela Universidade Federal de Goiás (2002). Tem experiência na área de Ciência da Computação, com ênfase em Banco de Dados, atuando principalmente nos seguintes temas: consultas aproximadas, junção por similaridade e indexação.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1474,7 +1469,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>É Bacharel em Sistemas de Informação e Licenciado em Computação pela Universidade Estadual do Norte do Paraná - Campus Luiz Meneghel, tem especialização (Lato Sensu) em Redes de Computadores pela Escola Superior Aberta do Brasil. Possui certificação ITIL® Foundation. Atualmente é Técnico Judiciário no Tribunal Regional do Trabalho da 15º Região atuando na Seção de Operações de Infraestrutura de TIC.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1507,11 +1502,7 @@
           <t>MT</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>24-01-2010</t>
@@ -1542,11 +1533,7 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>04-06-2004</t>
@@ -1571,7 +1558,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Bacharel em Sistemas de Informação pelo Centro Universitário Franciscano. Tem experiência na área de Ciência da Computação, com ênfase em Gestão de Tecnologia de Informação, Modelagem de Processos. Graduado no Programa Especial de Graduação de Formação de Professores para a Educação Profissional (PEG) - Universidade Federal de Santa Maria/UFSM. Mestrando do Programa de Pós Graduação em Ciência da Computação (PPGCC) - Universidade Federal de Santa Maria/UFSM.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1606,7 +1593,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Bacharel em Informática pela Universidade Federal de Santa Maria (UFSM, 1999), mestre (2001) e doutora (2008) em Ciência da Computação pela Universidade Federal do Rio Grande do Sul (UFRGS). Realizou estágio de doutorado na University of California (UCLA, EUA), sob a orientação do professor Carlo Zaniolo (2006-2007). Atuou em cursos de graduação e pós-graduação (PUCRS, UFRGS, ULBRA, UCS, UNIPAMPA e UFSM). Trabalhou em duas empresas de Desenvolvimento de Software, na área de Banco de Dados (no Brasil e em Portugal). Atualmente é professora no Departamento de Linguagens e Sistemas de Computação na Universidade Federal de Santa Maria (UFSM), atuando na graduação e no Programa de Pós-Graduação em Ciência da Computação (PPGCC). Foi tutora do grupo PET - Sistemas de Informação (Programa de Educação Tutorial) de 2010 a 2016. Atua na área de Bancos de Dados e Sistemas de Informação, com trabalhos na área de XML, bancos de dados noSQL e refatoração em bancos de dados.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1641,7 +1628,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Jorge Alberto Fenner Flores Junior bacharel em Sistemas de Informação e pós-graduado em Tecnologias da Informação e da Comunicação aplicadas à Educação, ambos pela Universidade Federal de Santa Maria e concluiu o Técnico em Informática pela CS Computadores em 2010. Atualmente cursa Licenciatura em Computação na Universidade Federal de Santa Maria.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1746,7 +1733,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciência da Computação (2012) pela Universidade Estadual do Oeste do Paraná e está cursando MBA em Gestão de Projetos pela Univel. Empreende na área da computação atuando, principalmente, com desenvolvimento e análise de sistemas, análise e gestão de projetos e criação e manutenção de bancos de dados. Possui interesse em pesquisa nas áreas de Geoprocessamento, Inteligência artificial e Banco de dados.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1773,7 +1760,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciência da Computação pela Universidade Federal da Fronteira Sul (2015). Especialização em técnologias para aplicações web pela Universidade Norte do Paraná (2017). Atualmente leciona para os cursos de Sistemas de Informação e Engenharia da Computação na UNOESC-Chapecó. Trabahos de pesquisas na área de Mapeamento de Esquemas. Tem experiência na área de Sistemas Embarcados, Sistemas Digitais, Computação Gráfica, Programação Web, Banco de Dados, Analise de Sistemas e Suporte ao Usuário.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1808,7 +1795,8 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Daniel de Oliveira é professor do Instituto de Computação da Universidade Federal Fluminense (IC/UFF) desde fevereiro de 2013. Recebeu o grau de Doutor em Engenharia de Sistemas e Computação pela COPPE/UFRJ em 2012 e o de Mestre em Engenharia de Sistemas e Computação em 2008, também pela COPPE/UFRJ. Desde 2013 co-lidera o Grupo de Pesquisa em Banco de Dados da Universidade Federal Fluminense (http://dgp.cnpq.br/dgp/espelhogrupo/0146318332389955). É bolsista de produtividade nível 2 do CNPq desde 2016 e Jovem Cientista do Nosso Estado da FAPERJ também desde 2016. Seus interesses de pesquisa incluem ciência de dados, computação em nuvem, gerência de dados de proveniência, gerência de workflows científicos, paralelismo de dados, bioinformática e mineração de dados. Publicou mais de 150 artigos em periódicos indexados e em congressos nacionais e internacionais. Vem participando de Comitês de Programa de congressos nacionais e internacionais como o VLDB17, IPAW16, SBBD15, SBBD16, WORKS16 além de ser revisor ad-hoc de revistas nacionais e internacionais. Sócio da SBC, IEEE e ACM. Já coordenou/coordena diversos projetos de pesquisa aprovados por órgãos de fomento. Entre eles, cabe destacar: 2 Projetos Universais CNPq, 1 Projeto &amp;quot;Grupos Emergentes FAPERJ&amp;quot;, 1 Projeto &amp;quot;APQ1 FAPERJ&amp;quot; e 2 Projetos &amp;quot;Jovem Cientista do Nosso Estado FAPERJ&amp;quot;, nas áreas de workflows científicos em ambientes de paralelismo e gerência de dados de proveniência além de participar de diversos outros projetos financiados por agências de fomento. Publicou artigos técnicos e é coautor do livro &amp;quot;Data-Intensive Workflow Management for Clouds and Data-Intensive and Scalable Computing Environments&amp;quot;
+publicado pela Morgan &amp;amp; Claypool em 2019. Foi chair do comitê de programa do BreSci'14, BreSci'19, WPerformance'16, SBBD Demos'17, BSB'18 e BSB'19. Mais informações podem ser obtidas em http://www.ic.uff.br/~danielcmo e http://dblp.uni-trier.de/pers/hd/o/Oliveira_0001:Daniel_de.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1833,11 +1821,7 @@
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>10-07-2013</t>
@@ -1870,7 +1854,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Sistemas de Informação pela Universidade Federal de Santa Catarina (2011). Atualmente é analista e implementadora de sistemas - Softplan Planejamento e Sistemas. Tem experiência na área de Ciência da Computação, com ênfase em Banco de Dados</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1905,7 +1889,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciência da Computação pela Universidade Estadual do Oeste do Paraná (2012). Atualmente é mestrando da Universidade Federal de Santa Catarina e colaborador no Consiglio Nazionale delle Ricerche. Tem experiência na área de Ciência da Computação, com ênfase em Banco de Dados, atuando principalmente nos seguintes temas: indexação e recuperação de dados em bases de dados espaço-temporais e fusão de dados de trajetórias espaço-temporais com dados de mídias sociais.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1938,11 +1922,7 @@
           <t>SC</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>05-03-2008</t>
@@ -1975,7 +1955,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Graduado em Ciência da Computação pela Universidade Católica de Pelotas (2005) e Mestre em Computação Aplicada pela Universidade do Vale do Rio dos Sinos (2008). Em 2008 iniciou a trabalha na GoDigital Tecnologia e Participações, inicialmente como Pesquisador e Desenvolvedor, realizando pesquisas nas áreas de IA e Qualidade de Dados, utilizando a linguagem Java, Design Patterns e metodologias ágeis. Em fevereiro de 2009 tornou-se Líder Técnico da Equipe de Pesquisa &amp;amp; Inovação e em dezembro de 2009 assumiu a gestão da equipe, cargo que ocupou até fevereiro de 2011. Atualmente atua como pesquisador e desenvolvedor na empresa Invenio Software Inteligente, desenvolvendo soluções para turismo. Suas áreas de conhecimento são Ontologias, Aprendizado de Máquina, Qualidade de Dados, Sistemas de Recomendações e Identificação de Perfil.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2010,7 +1990,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Mestrando em Ciência da Computação pela Universidade Federal de Santa Maria - UFSM. Graduado em Ciência da Computação pela Universidade Regional do Noroeste do Estado do Rio Grande do Sul - UNIJUÍ campus Santa Rosa. Pesquisador no Grupo de Pesquisa em Engenharia de Software - PEnSo trabalhando com temas como Processos de Desenvolvimento e Jogos Digitais.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2045,7 +2025,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Graduado em Ciência da Computação pela Universidade Federal de Santa Maria (2007), com especialização em Aplicações para web pela FURG (2013). Atualmente trabalho como Analista de Tecnologia da Informação na Universidade Federal do Pampa na área de gerenciamento da rede interna. Em todas as experiências profissionais sempre atuei na área de Administração de redes, tendo como complemento a instalação e configuração de servidores, o desenvolvimento de sistemas web e a criação de scripts em shell para solução de problemas ou otimização de rotinas.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2115,7 +2095,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Douglas Macedo é Professor Adjunto do Departamento de Ciência da Informação (CIN), da Universidade Federal de Santa Catarina (UFSC). Possui doutorado em Engenharia de Conhecimento (EGC), pela Universidade Federal de Santa Catarina (UFSC). Durante o período do doutorado, esteve atuando como pesquisador visitante na The University of Western Ontario (UWO), em London - Ontario, no Canadá. Atua como pesquisador associado do Instituto Nacional de Convergência Digital (INCoD), atuando no Laboratório de Telemedicina (LabTelemed) e no Laboratório de Pesquisas em Sistemas Distribuídos (LaPeSD) da UFSC. Também atua como Membro Permanente do Programa de Pós-Graduação em Ciência da Computação (PPGCC/UFSC) e do Programa de Pós-Graduação em Ciência da Informação (PGCIN/UFSC). É coordenador do Laboratório de Engenharia e Ciência de Dados (LECID) da UFSC. No passado, atuou como Professor Adjunto do Departamento de Computação (DCOMP) da Universidade Federal de Sergipe (UFS), onde também desempenhou papel de Coordenador do Núcleo de Desenvolvimento de Telemedicina e Telessaúde da UFS. Ainda no passado, foi professor efetivo do Instituto Federal de Santa Catarina (IFSC), onde atuou no Campus Garopaba. Tem experiência na área de Ciência da Computação, com ênfase em Redes de Computadores, Bancos de Dados Não-Convencionais, Sistemas Distribuídos e Informática Médica.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2150,7 +2130,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Tem experiência na área de Banco de Dados trabalhando com dados geográficos, dados ligados e recuperação de informação.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2185,7 +2165,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Graduação em andamento em Ciência da Computação pela URI, Universidade Regional Integrada do Alto Uruguai e das Missões, Erechim. Atualmente é bolsista de iniciação científica.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2251,7 +2231,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciência da Computação pela Universidade Federal do Rio Grande do Sul (2002), mestrado em Computação pela Universidade Federal do Rio Grande do Sul (2005) e doutorado em Computação pela Universidade Federal do Rio Grande do Sul (2012). Tem experiência na área de Ciência da Computação, com ênfase em lógicas e semântica de programas, atuando principalmente nos seguintes temas: semântica formal, modelos de computação, sistemas de reescrita de grafos e linguagens de programação funcionais.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2321,7 +2301,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Bacharelado em Sistema de Informação pelo Instituto Federal de Educação, Ciência e Tecnologia do Espírito Santo (2016), com experiência no exterior pelo programa Ciências Sem Fronteiras realizado na Austrália. Atualmente cursando Mestrado Profissional de Engenharia de Controle e Automação no Instituto Federal do Espirito Santo. Tem experiência na área de Sistemas de Informação, com ênfase em Sistemas de Computação Inteligentes, atuando principalmente no seguintes temas: tecnologia da informação. visão computacional e inteligência artificial.</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2416,11 +2396,7 @@
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
           <t>09-08-2012</t>
@@ -2453,7 +2429,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciência da Computação pela Universidade Regional Integrada do Alto Uruguai e das Missões (2009). Especialista em Desenvolvimento de Aplicações Web com a Tecnologia Java pela UNOPAR(2013). Mestrando em Computação Aplicada pela UPF (2017). Atualmente é analista de tecnologia da informação do Instituto Federal Farroupilha Campus Frederico Westphalen.</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2488,7 +2464,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Eduardo S. Estima de Castro possui Mestrado em Engenharia da Informática (ENSIMAG - França) e Mestrado em Ciência da Computação (UFRGS - Brasil). Suas principais áreas de interesse são Desenvolvimento de Negócios e Engenharia de Software. Desde 2002, ele desenvolve projetos internacionais de software para óleo e gás e integração de negócios.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2523,7 +2499,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Informática Bacharelado pela Universidade Federal de Santa Maria (1993), mestrado em Ciência da Computação pela Universidade Federal do Rio Grande do Sul (1999) e doutorado em Ciência da Computação pela Universidade Federal do Rio Grande do Sul (2014). Atuou como professor assistente da Universidade Luterana do Brasil (ULBRA), Campus de Santa Maria. Atualmente é analista de TI da Universidade Federal de Santa Maria (UFSM) e é membro da Comissão de Informatização da Gestão, Preservação e Acesso a Documentos Arquivisticos Digitais. Tem experiência na área de Ciência da Computação, com ênfase em Bancos de Dados, atuando principalmente nos seguintes temas: integração de bases de dados heterogêneas, descoberta de conhecimento em bases de dados e Web Oculta/Profunda</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2558,7 +2534,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Bacharelado Em Ciência da Computação pela Pontifícia Universidade Católica do Rio Grande do Sul (2004), mestrado em Ciência da Computação pela Pontifícia Universidade Católica do Rio Grande do Sul (2006) e doutorado em Ciência da Computação pela Pontifícia Universidade Católica do Rio de Janeiro (2012) . Tem experiência na área de Ciência da Computação, com ênfase em Banco de Dados, atuando principalmente nos seguintes temas: data mining, business process management, modelagem de dados e bioinformática.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2593,7 +2569,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Mestre em Computação Aplicada na Linha de Pesquisa de Inteligência artificial e graduado em Ciência da Computação pela UNIVALI, atuou desde 2004 como Administrador de Bancos de Dados Relacionais (Oracle, DB2, SQL Server, PostgreSQL e MySQL), tendo migrado em 2017 para a área de Ciência de Dados. Atua como professor universitário, consultor de tecnologia para a Diretoria de Informação e Inteligência (DINI) da Secretaria de Segurança Pública de Santa Catarina (SSP-SC) e pesquisador no Grupo de Pesquisa em Sociedade, Segurança e Cidadania da UNISUL - NESC através da Diretoria de Formação e Capacitação Profissional (DIFC) . Possui experiência também em desenvolvimento para dispositivos móveis (Android), álgebra, cálculo, estatística, sistemas operacionais POSIX e bancos de dados não-relacionais, com suas pesquisas aplicadas para o desenvolvimento de tecnologias para a área de inteligência de estado e computação aplicada em ciência de dados, com foco em Big Data e Data Lakes.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2628,7 +2604,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Professor no departamento de informática da UTFPR-Curitiba, onde ministra as disciplinas de bancos de dados, ciência de dados e recuperação de informação. Obteve seu doutorado pela UNICAMP, com intercâmbio de pesquisa na UPMC-Paris e postdoc na Université d'Orléans. É pesquisador na área de bancos de dados há mais de 10 anos, com desmembramentos nas áreas de ciência de dados, recuperação de informação e processamento de linguagem natural. Além da experiência acadêmica, trabalhou também na indústria e no governo.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2694,7 +2670,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui Graduação em Ciência da Computação pela Universidade Federal do Pampa (2013). Atualmente é mestrando em Ciência da Computação pela PUCRS. Possui interesse nas áreas de Aprendizado de Máquina e Processamento de Linguagem Natural, com ênfase em mineração de dados sociais.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2729,7 +2705,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>possui graduação (1990), mestrado (1994) e doutorado (2002) em Ciência da Computação pela Universidade Federal do Rio Grande do Sul. Atualmente é professor titular do Departamento de Informática e Estatística da Universidade Federal de Santa Catarina (INE/UFSC). Tem experiência na área de Ciência da Computação, com ênfase em Banco de Dados, atuando principalmente nos seguintes temas: modelagem de dados e de restrições de integridade, integração e interoperabilidade de dados, bancos de dados NoSQL e NewSQL. Coordena, desde 2006, o Grupo de pesquisa em Banco de Dados da UFSC (GBD/UFSC). Coordenou, de novembro de 2011 a novembro de 2015, o Programa de Pós-Graduação em Ciência da Computação da UFSC (PPGCC/UFSC). Foi subcoordenador do Curso de Graduação em Sistemas de Informação da UFSC. Atualmente é tutor do Programa de Educação Tutorial (PET) da Computação da UFSC.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2764,7 +2740,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui Graduação em Informática pela Universidade Regional do Noroeste do Estado do Rio Grande do Sul (1993), Graduação em Ciências Contábeis pela Universidade Regional do Noroeste do Estado do Rio Grande do Sul (1992) e Mestrado em Ciências da Computação pela Universidade Federal de Santa Catarina (2002). Atuou como DBA na UNIJUI de 1991 a 2008. Foi professor na área de banco de dados na UNIJUI de 2002 a 2010. Atualmente trabalha na UNIPAMPA, campus Alegrete nos cursos de Ciência da Computação e Engenharia de Software. As áres de interesse são: 1) Banco de dados: Data Warehouse, Data Mining, Integração de dados. 2) Governança de TI: PMBOK, COBIT, ITIL.</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2789,11 +2765,7 @@
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
           <t>03-09-2015</t>
@@ -2826,7 +2798,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Sistema de Informação pela Universidade Federal de Santa Catarina (2007). Atualmente é administrador de bancos de dados na Neoway Business Solutions. Tem 12 anos de experiência na área de Ciência da Computação, com ênfase em Banco de Dados, plataformas de captura, processamento e armazenamento de dados. Também atua na área de bancos de dados de grafos, social network analysis e data science.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2861,7 +2833,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Brasileiro oriundo da cidade de Rio Grande RS. Graduado no curso de bacharelado em sistemas de informação na Universidade Federal do Rio Grande - FURG. Mestrando em engenharia de computação pela Universidade Federal do Rio Grande.</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2896,7 +2868,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui doutorado em Engenharia Elétrica pela Escola Politécnica da Universidade de São Paulo (2006), mestrado em Ciência da Computação pela Universidade Federal de São Carlos (2000), especialização em Gerência de Projetos de Software pela FIL/IBM (1997), graduação em Tecnologia em Processamento de Dados pela Fundação Paulista de Tecnologia e Educação, Lins, São Paulo (1993) e Licenciatura Plena em Educação Física pela Faculdade de Educação Física de Lins (1987). Atualmente é professor e pesquisador do Instituto Federal de Educação, Ciência e Tecnologia de São Paulo (IFSP), campus Salto. Mais de vinte anos de experiência profissional em desenvolvimento de software orientado a objetos na plataforma JEE, gerência de projetos, gerência de fábricas de software e gerência de projetos de melhoria contínua de processos de engenharia de software baseados nos modelos CMMI, MPSBR, ITIL, nos Métodos Ágeis e no Processo Unificado.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2931,7 +2903,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciência da Computação pela Universidade de Cruz Alta (2013). Atualmente é analista de sistemas pleno - Lógica Informatica. Tem experiência na área de Ciência da Computação, com ênfase em Banco de Dados</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2958,7 +2930,9 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Bacharel em Sistemas de Informação;
+Técnico em informática com ênfase no desenvolvimento de softwares.
+Contato: (047) 9744-3418</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2991,11 +2965,7 @@
           <t>SC</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
           <t>30-07-2014</t>
@@ -3063,7 +3033,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Juliano é bacharel em Sistemas de Informação e mestre em Ciência da Computação. Especialista em Machine Learning, atualmente atua como técnico judiciário (esp. em TI) no Tribunal Regional do Trabalho da 4a Região (RS) e leciona como professor convidado do curso de Especialização em Ciência de Dados da PUCRS.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3133,7 +3103,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>É Bacharel pelo curso de Ciência da Computação da Universidade de Passo fundo (UPF). É Técnico em Informática pelo Instituto Federal do Rio Grande do Sul (IFRS). Atualmente é desenvolvedor de software na ALTA Capital - Investimentos estratégicos, onde aplica modelos de séries temporais e técnicas de machine learning para semi-automatizar processos de tomada de decisão em investimentos financeiros. Tem conhecimentos em Orientação a Objetos, Modelagem Relacional, Banco de Dados, extração de elementos textuais em imagens. Possui experiência nas seguintes linguagens: Java, Javascript, PHP, SQL. Além disso, já estudou as seguintes linguagens: Python e R.</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3166,11 +3136,7 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
           <t>11-05-2010</t>
@@ -3203,7 +3169,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui mestrado em Computação pela Universidade Federal do Rio Grande do Sul (2007), com ênfase em Banco de Dados, graduação em Bacharelado em Ciência da Computação pela Universidade Federal do Pará (2004). Tem experiência na área de Ciência da Computação, com ênfase em Banco de Dados, atuando principalmente nos seguintes temas: Xml, Recuperação de Informação, Caminhos(Paths) e Similaridade.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3238,7 +3204,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Graduada em Comunicação Social pela Pontifícia Universidade Católica do Rio Grande do Sul e em Geografia-Licenciatura e Bacharelato pela Universidade Federal do Rio Grande do Sul, Mestrado em Planejamento Urbano e Regional pela Universidade Federal do Rio Grande do Sul, Doutorado em Ciências da Comunicação pela Universidade de São Paulo e Pós-Doutorado pela Universidade de São Paulo. Professora Titular da Pontifícia Universidade Católica do Rio Grande do Sul, Membro do Conselho Editorial da Revista Internacional de Relaciones Públicas (Espanha), Organicom e Revista Brasileira de Ciências da Comunicação-Intercom. Tem como temas de interesse: comunicação organizacional e seus desdobramentos e interfaces, memória organizacional, diálogos/discursos organizacionais. Teses premiadas no Prêmio Abrapcop de Teses e Dissertações da Abrapcorp -2016/2017. Destacam-se como atividades administrativas: Coordenação da Iniciação Científica da Universidade/Diretoria de Pesquisa/Pró-Reitoria de Pesquisa,Desenvolvimento e Inovação/PROPESQ/PUCRS, Coordenação Institucional do PIBIC/PIBITI/CNPq, PROPIC/PROBITI/FAPERGS . Coordenação de Grupos de Trabalho nos Congressos da ABRAPCORP, Seminário Internacional da Comunicação e da ALAIC. Diretora Científica da Abrapcorp [2014-2016]. Coordenadora/Líder do Grupo de Pesquisa em Estudos Avançados em Comunicação Organizacional - GEACOR/CNPq. Coordenadora Executiva do DTI 9 - Estudos da Comunicação Organizacional - Congresso Ibercom 2015/2019. Vice-Presidente da Associação Brasileira de Pesquisadores de Comunicação Organizacional e de Relações Públicas ? Abrapcorp/ 2016-2018. Membro do Conselho Consultivo. da Associação Brasileira de Pesquisadores de Comunicação Organizacional e de Relações Públicas ? Abrapcorp 2019-2021.</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3273,7 +3239,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Renato Fileto holds a Bachelor degree in Computer Science from the Federal University of Uberlândia (1992), a Master degree (1994) and a Doctorate degree (2003) in Computer Science from Campinas State University, Brazil, with an internship at Georgia Institute of Technology, USA (2002), and a Post-Doctorate from the University of São Paulo (2012). His research carrier has been intertwined with activities in the industry. Since 2006, he is a permanent professor at the Department of Informatics and Statistics (INE) of Santa Catarina Federal University (UFSC), in Florianópolis-SC, Brazil. His research area is databases, with the focus in semantics and contexts for data analytics.</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3343,7 +3309,8 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Bacharel em Ciência da Computação pela UFRGS (2010), Engenheiro de Sistemas de Informação e Master em ?Sistemas de Informação e Engenharia Avançada de Software? pelo ENSIMAG INP-Grenoble/França (2010). Pós-Graduação em Engenharia e Arquitetura de Software pela Universidade Estácio de Sá (2014). Cursando Bacharelado em Ciências Contábeis na UFRGS desde 2017.
+Atualmente é Analista Judiciário, Especialidade Tecnologia da Informação, no Tribunal Regional do Trabalho da 4º Região (RS), atuando como analista e desenvolvedor dos sistemas administrativos.</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3378,7 +3345,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Atualmente atua como Analista de TI no Núcleo de Tecnologia da Informação (NTI) da Universidade Federal do Rio Grande - FURG. Possui graduação em Sistemas de Informação(2012) e Mestrado em Engenharia de Computação(2015) pela mesma instituição.</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3413,7 +3380,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Doutorando em Ciência da Computação e Matemática Computacional no ICMC-USP - São Carlos. Experiência em Inteligência Artificial, Aprendizado de Máquina e Processamento de Língua Natural. Atualmente pesquisando Análise de Sentimentos, Semântica e Aprendizado de Máquina.</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3471,7 +3438,8 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciência da Computação pelo Centro Universitário de João Pessoa (2013);
+Possui pós graduação em Desenvolvimento em Java pela Estácio de Sá (2016).</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3504,11 +3472,7 @@
           <t>SC</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
           <t>22-06-2010</t>
@@ -3541,7 +3505,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>possui graduação no bacharelado em Informática - Software Básico pela Pontifícia Universidade Católica do Rio Grande do Sul (1990), mestrado (1993) e doutorado (2008) em Ciência da Computação pela Universidade Federal do Rio Grande do Sul. Pós-doutorado na Friedrich-Alexander Universität Erlangen-Nürnberg/Alemanha. Professor da Universidade do Vale do Rio dos Sinos (UNISINOS) nos cursos de Ciência da Computação e Sistemas de Informação. Decano da Escola Politécnica - UNISINOS. Pesquisador do PPG em Computação Aplicada da UNISINOS. Bolsista de Produtividade em Desenvolvimento Tecnológico e Extensão Inovadora (DT-2) do Conselho Nacional de Desenvolvimento Científico e Tecnológico (CNPq). Atua nas áreas de Inteligência Artificial, Web Semântica, Processamento de Linguagem Natural, Robótica e Educação a Distância. Atuou como Coordenador do Programa Interdisciplinar de Pós-Graduação em Computação Aplicada (2016-2017), coordenador executivo do curso de Graduação em Ciência da Computação da UNISINOS (2011-2015), Representante Institucional da SBC na UNISINOS (2013-2015), Membro da Comissa&amp;amp;#771;o Assessora de A&amp;amp;#769;rea de Cie&amp;amp;#770;ncia da Computac&amp;amp;#807;a&amp;amp;#771;o ENADE/INEP (2014-2018), Membro Titular do Comitê Assessor da área de Matemática, Estatística e Computação da FAPERGS (2015-2017). Membro do Comitê Gaúcho de Dados Abertos (2014). Desde 2012 participou do registro de 8 programas de computador junto ao INPI. Participou e coordenou projetos de pesquisa em âmbito nacional e internacional. Coordena projetos de pesquisa na área de Processamento de Linguagem Natural, Internet das Coisas, Inteligência Artificial e Computação Cognitiva.</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3576,7 +3540,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>possui graduação em Ciência da Computação pela Universidade de Santa Cruz do Sul (2005). Mestrado em Sistemas e Processos Industriais na Universidade de Santa Cruz do Sul(UNISC) (2009). Corretor de Imóveis na Vivendas Negócios Imobiliários Ltda. Tem experiência na área de Ciência da Computação, com ênfase em Sistemas de Informação, atuando principalmente nos seguintes temas: recuperação de informação, motor de busca, algoritmos genéticos e thesaurus.</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3611,7 +3575,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Graduanda de Engenharia de Computação pela Universidade Federal do Pampa.</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3646,7 +3610,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Mestre em Ciência da Computação pelo Programa de Pós-graduação da Universidade Federal de Santa Catarina - UFSC. Graduado em Sistemas de Informação pela mesma universidade (UFSC). Atualmente é professor do Instituto Federal de Santa Catarina - IFSC, lecionando no curso superior de Gestão em Tecnologia da Informação e outros. Atua principalmente em projetos de pesquisa e desenvolvimento, tendo experiência na área de Tecnologia da Informação, com ênfase em Assinatura Digital, Infraestrutura de Chaves Públicas (ICP), Desenvolvimento de Sistemas Computacionais, e Interoperabilidade Sistêmica. Membro do Grupo de Pesquisa em Governo Eletrônico da UFSC, atuando como pesquisador no projeto CNJ Acadêmico, sob coordenação do Professor Dr. Aires José Rover, sendo responsável pela linha de pesquisa em segurança da informação. Considerado proficiente em inglês por meio de exame realizado pelo Departamento de Língua e Literatura Estrangeiras (DLLE) da UFSC.</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3681,7 +3645,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Jeferson Kasper, graduado em Ciência da Computação pelo Centro Universitário Franciscano (2006), atualmente é mestrando do Programa de Pós-Graduação em Informática, da Universidade Federal de Santa Maria (UFSM). Atua na área de Ciência da Computação, com ênfase em Banco de Dados, atuando principalmente nos seguintes temas: Banco de Dados Ativos, Eventos Temporais em Bancos de Dados.</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3743,7 +3707,7 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Acadêmico do curso de Sistemas de Informação da Universidade Federal de Santa Maria (UFSM). Atualmente é bolsista do Programa de Educação Tutorial de Sistemas de Informação (PET-SI) da UFSM.</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3778,7 +3742,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciência da Computação pela Universidade do Vale do Rio dos Sinos (2009). Tem experiência na área de Ciência da Computação, com ênfase em Processamento de Linguagem Natural, atuando principalmente nos seguintes temas: resolução de correferência, extração de informação, ontologias e bioinformática.</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3813,7 +3777,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Técnico em Informática pelo Instituto Federal de Educação, Ciência e Tecnologia de Rondônia. Acadêmico de Ciência da Computação na Universidade Federal de Rondônia.</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3848,7 +3812,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Doutorando em Engenharia do Conhecimento na Universidade Federal de Santa Catarina (UFSC). Mestrado (2016) e bacharelado (2008) em Ciências da Computação pela UFSC e especialização (2012) em Engenharia de Projetos de Software pela Universidade do Sul de Santa Catarina (UNISUL). Analista de Tecnologia da Informação na SeTIC/UFSC. Integrante dos laboratórios de pesquisa LEC/UFSC (Laboratório de Engenharia do Conhecimento) e NGS/UFSC (Núcleo de Gestão para a Sustentabilidade).</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3883,7 +3847,8 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Tem experiência na grande área de Ciência da Computação, em desenvolvimento e pesquisa.
+Atualmente cursa o 7  período de Ciência da Computação na Universidade Federal de Lavras.</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3918,7 +3883,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Cássio Prazeres é Doutor em Ciências - Área de Ciências de Computação e Matemática Computacional - pela Universidade de São Paulo (2009), é professor Associado I na Universidade Federal da Bahia (UFBA) nas áreas Internet/Web e é orientador permanente no Programa de Pós-graduação em Ciência da Computação (PGCOMP-UFBA). Prazeres é membro: da Sociedade Brasileira de Computação (SBC); do ACM SIGWEB (Special Interest Group on Hypertext the Web); do IEEE Computer Society Technical Committee on Services Computing; do IEEE Smart Cities Technical Community; do IEEE Internet of Things Technical Community; e do W3C Web of Things Community Group. É co-fundador e líder do Laboratório e Grupo de Pesquisa CNPq WISER (Web, Internet and Intelligent Systems Research Group). Tem interesse em pesquisas envolvendo tópicos de: Internet of Things, Web of Things, Web Services, Semantic Web, Microservices, Fog Computing, Fog of Things, Web of Data, Linked Data. Prazeres realizou estágio pós-doutoral como professor visitante no DERI (Digital Enterprise Research Institute) na National University of Ireland (Galway) nas áreas de Internet das Coisas e Web Semântica.</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -3988,7 +3953,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>possui mestrado na UFSC (2010) na área de Banco de Dados, com foco em Data Warehouses Espaciais. Atualmente é Analista de Tecnologia da EPAGRI em Santa Catarina.</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4058,7 +4023,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Análise de Sistemas pela Universidade Católica de Pelotas (1995), mestrado em Ciência da Computação pela Pontifícia Universidade Católica do Rio Grande do Sul (1998), doutorado em Administração (Área: Sistemas de Informação e Apoio à Decisão) pela Universidade Federal do Rio Grande do Sul (2004) com reconhecimento pela Universidade do Minho (Portugal) e estágio em Produção e Sistemas na Universidade do Minho (2016). Atualmente é professor associado no Departamento de Ciências Administrativas da Universidade Federal de Santa Maria (UFSM). Tem experiência nas áreas de modelagem de sistemas de apoio a decisão e gestão da produção.</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4093,7 +4058,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Graduada em Licenciatura Plena e Bacharelado em Biologia pela Universidade de Caxias do Sul (1989); Especialista em Metodologia da Pesquisa e do Ensino Superior - Área de Concentração: Educação Ambiental; Mestre em Engenharia Civil - Área de Concentração - Recursos Hídricos e Saneamento pela Universidade Estadual de Campinas (1994); Doutora em Engenharia de Recursos Hídricos e Saneamento Ambiental pelo Instituto de Pesquisas Hidráulicas (IPH) da Universidade Federal do Rio Grande do Sul (2005). Professora Titular e Diretora do Instituto de Saneamento Ambiental da Universidade de Caxias do Sul; Revisora dos periódicos: Revista Panamericana de Salud Pública, Revista Engenharia Sanitária e Ambiental, Revista Biociências; Parecerista ad hoc da Universidade Severino Sombra; Consultor ad hoc da Fundação de Apoio ao Desenvolvimento do Ensino, Ciência e Tecnologia do MS, Integrante dos conselhos municipais de defesa do meio ambiente de Caxias do Sul e Bento Gonçalves (suplente); Membro do Comitê de Gerenciamento da Bacia Hidrográfica do Rio Taquari Antas; Responsável técnica do Instituto Porto Alegre Ambiental; Coordenadora do Congresso Internacional de Tecnologias Ambientais e Diretora da Fiema Brasil - Feira Internacional de Tecnologia para o Meio Ambiente; Membro da diretoria no Conselho consultivo da Associação Brasileira de Engenharia Sanitária e Ambiental - RSl. Tem experiência nas áreas de Biologia, Engenharia Ambiental, Enfermagem, Engenharia Civil e Arquitetura atuando principalmente nos seguintes temas: gerenciamento de resíduos sólidos - Resíduos Sólidos Urbanos, Resíduos de Serviços de Saúde, Resíduos da Construção Civil, Resíduos de madeira e Resíduos no meio Rural; Gestão de Recursos Hídricos e Monitoramento da Qualidade da Água; Gestão Ambiental; Saneamento Ambiental; Formação de Professores para o ensino de ciências e Biologia..</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4128,7 +4093,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui Bacharelado (2011) em Ciência da Computação, pela Universidade Federal de Santa Maria (UFSM); Especialização (2014) em Formação Pedagógica para Docentes da Educação Profissional Técnica e Tecnológica em Informação e Comunicação, pela Faculdade de Ciências Sociais Aplicadas (FACISA); e Mestrado (2014) em Ciência da Computação, pela Universidade Federal do Rio Grande do Sul (UFRGS). Durante a graduação, foi bolsista do Laboratório de Computação para Clima Espacial (LabCCE) do Centro Regional Sul de Pesquisas Espaciais (CRS/INPE), envolvendo-se com as áreas de Banco de Dados e Mineração de Dados. No mestrado, realizou pesquisa nas áreas de Recuperação de Informação e Mineração na Web, com foco na recuperação de páginas-objeto. Atualmente, é Analista de Tecnologia da Informação do Instituto Federal Farroupilha (IF Farroupilha).</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4163,7 +4128,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Sistema de Informação pelo Instituto Federal Catarinense (2016). Interesse em pesquisa em algoritmos genéticos e mineração de dados. Participante do grupo de pesquisa em mineração de dados do Instituto Federal Catarinense Campus Araquari.</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4198,7 +4163,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Graduando em Análise e Desenvolvimento de Sistemas no Instituto Federal de Educação, Ciência e Tecnologia Farroupilha (IFFar).</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4299,7 +4264,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciência da Computação (Bacharelado) pela UNESP - Universidade Estadual Paulista (2011). Atualmente é pesquisador da Fundação Centro de Pesquisa e Desenvolvimento em Telecomunicações, onde atua desde 2004 em atividades de pesquisa e desenvolvimento tecnológico.  Tem experiência em desenvolvimento de software na área de Telecomunicações.</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4334,7 +4299,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Bacharelado em Ciências da Computação pela Universidade do Estado de Santa Catarina (2004), mestrado em Ciências da Computação pela Universidade Federal de Santa Catarina (2008) e doutorado em Ciências da Computação pela Universidade Federal do Paraná (2014). Atualmente é professor da Universidade do Estado de Santa Catarina. Tem experiência na área de Ciência da Computação, com ênfase em Banco de Dados, atuando principalmente nos seguintes temas: modelagem de dados semi-estruturados e gerenciamento de dados distribuidos.</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4369,7 +4334,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Associada da Sociedade Brasileira de Computação (SBC). Coordenadora e professora do curso de Licenciatura em Informática da UNICNEC - Centro Universitário Cenecista de Osório. Coordenadora e professora dos cursos de Bacharelado em Sistemas de Informação EAD e Tecnologia em Análise e Desenvolvimento de Sistemas EAD do Centro Universitário Cenecista de Osório. Possui mestrado em Ciência da Computação pela UFRGS - Universidade Federal do Rio Grande do Sul (2005) e graduação em Informática pela UNIJUI - Universidade Regional do Noroeste do Estado do Rio Grande do Sul (1996).</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4402,11 +4367,7 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
           <t>28-10-2011</t>
@@ -4431,7 +4392,7 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Mestre e Bacharel em Ciência da Computação pela Universidade Estadual de Londrina (UEL). Durante a graduação, trabalhou com banco de dados, especificamente dados de localização e similaridade de imagens, possui experiencia em pesquisa e testes de segurança de redes. Trabalha com desenvolvimento web a 3 anos com Python e Node.Js, possuindo experiência com testes unitários e testes de segurança em sistemas web e configuração de serviços AWS. Atualmente trabalha como residente do Hub de Inteligência Artificial do SENAI, desenvolvendo soluções para a indústria utilizando técnicas de aprendizado de máquina.</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4458,7 +4419,7 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação pela Universidade Federal do Rio Grande do Sul (2005). Atualmente é analista de software pleno do Instituto de Pesquisas Eldorado - Porto Alegre. Tem experiência na área de Ciência da Computação, com ênfase em Ciência da Computação.</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4528,7 +4489,9 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Sistemas de Informação pela URCAMP, especialização em Sistemas Distribuídos com Ênfase em Banco de Dados pela UNIPAMPA e mestrado em Engenharia de Computação pela FURG.
+É docente do quadro permanente do Instituto Federal de Educação, Ciência e Tecnologia Sul-rio-grandense.
+Fala Inglês fluente e tem experiência internacional na área de ciência da computação com ênfase em desenvolvimento de sistemas de informação e mineração de dados.</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4563,7 +4526,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciência da Computação pela Universidade de Passo Fundo (1995), Mestrado em Ciências da Computação pela Universidade Federal de Santa Catarina (2005) e Doutorado em Agronomia pela Universidade de Passo Fundo (2013). Atualmente é professor do ensino básico técnico e tecnológico do Instituto Federal Sul-Riograndense (IFSul) - Campus Passo Fundo. Tem experiência na área de sistemas de informação com ênfase em banco de dados, atuando principalmente nos seguintes temas: XML, Restrições de Integridade, Documentos XML, dados Não-Convencionais, Modelagem e Simulação de Aplicações.</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4598,7 +4561,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Mestre em Informática pela Universidade de Brasília, Bacharel em Sistemas de Informação pelo Centro Universitário Luterano de Ji-Paraná - CEULJI/ULBRA. Tem experiência na área de Ciência da Computação, com ênfase em Metodologia e Técnicas da Computação. Com as seguintes competências: desenvolvimento com as linguagens de programação: Java, C#, Delphi, PHP, JavaScript, C/C++, SQL e mineração de dados e desenvolvimento de projeto de automação com Arduino. Atualmente é professor e pesquisador do Instituto Federal de Educação, Ciência e Tecnologia de Rôndonia - IFRO, no qual é líder no Grupo de Pesquisa em Soluções Tecnológicas - GoTec.</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4633,7 +4596,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Engenheiro de Computação graduado pela Universidade Federal do Rio Grande (FURG).</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4668,7 +4631,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Bacharel em Sistemas de Informação pela Sociedade Educacional Três de Maio (SETREM), atualmente é Técnico Judiciário no Tribunal Regional do Trabalho da 4ª Região (RS) e está cursando Mestrado em Ciência da Computação na Pontifícia Universidade Católica do Rio Grande do Sul (PUCRS), com foco em modelagem de aplicações paralelas.</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4695,7 +4658,7 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui Técnico em Informática pelo Instituto Federal Farroupilha Campus Alegrete(2013) e está cursando Tecnologia em Análise e Desenvolvimento de Sistemas na mesma instituição. Tem interesse em Linux, Banco de Dados NoSQL e Projetos Open-source.</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4730,7 +4693,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>30 anos. Possui graduação em Mecatrônica Industrial pelo Instituto Federal de Santa Catarina (2010), graduação em sistemas de Informação pela Universidade Federal de Santa Catarina (2012) e mestrado em Ciências da Computação pela Universidade Federal de Santa Catarina (2015). Atualmente é analista de sistemas - CIASC. Tem experiência na área de Ciência da Computação, com ênfase em Sistemas de Informação, atuando principalmente nos seguintes temas: Desenvolvimento Web Fullstack, Java, Javascript, Typescript, CSS. Frameworks Vuejs, SpringBoot. Interesse na área de testes automatizados, prática de TDD e qualidade de código</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4757,7 +4720,7 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Graduada em Engenharia de Computação pela Universidade Tecnológica Federal do Paraná - UTFPR (2018), possui experiência na áreas de banco de dados e manufatura aditiva.</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4790,11 +4753,7 @@
           <t>SC</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
           <t>27-08-2003</t>
@@ -4827,7 +4786,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Vinícius Fülber Garcia é estudante de doutorado em Ciência da Computação pelo Departamento de Informática da Universidade Federal do Paraná (UFPR - Brasil), sob a supervisão do Prof. Dr. Elias Procópio Duarte Júnior. Ele é bacharel em Ciência da Computação pela Universidade Federal de Santa Maria (UFSM - Brasil) e mestre em Ciência da Computação pelo Programa de Pós-graduação em Ciência da Computação da UFSM. Seus interesses de pesquisa incluem, mas não estão limitados a, virtualização de funções de rede e teoria da informação.</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4862,7 +4821,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Manuele Ferreira is currently IT Systems Analyst at Minds at Work. Experience in software development since 2005 with emphasis on Research and Development (R&amp;amp;D). She received Master Degree at Pontificial Catholic University of Rio de Janeiro (PUC-Rio) in 2014.</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -4928,7 +4887,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciência da Computação pela Universidade Paranaense (1999), mestrado em Ciência da Computação pela Universidade Estadual de Maringá (2004) e doutorado na Universidade Federal do Paraná (2017). Atualmente é professor adjunto da Universidade Estadual de Maringá. Concluiu o mestrado na área de Ciência da Computação, com ênfase em Sistemas Inteligentes - programação por demonstração. Concluiu o doutorado na área de Sistemas de Informação com ênfase em Banco de Dados Distribuídos. Atualmente realiza pesquisas na área de sistemas distribuídos - banco de dados.</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -4963,7 +4922,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>É professor no curso de Ciência da Computação do Instituto Federal do Rio Grande do Sul (IFRS). Lidera o grupo de pesquisa Computação Interdisciplinar Alto Jacuí. É doutor em Computação pela Universidade Federal do Rio Grande do Sul (UFRGS) na área de extração de dados da Web sob orientação da profª. Drª. Renata Galante e co-orientação da profª. Drª. Carina F. Dorneles. Realizou seu mestrado em Computação na UFRGS na área de recuperação de informação temporal. É Bacharel pelo curso de Ciência da Computação da Universidade de Passo Fundo (UPF). Além disso, foi desenvolvedor de sistemas de gestão na Atua Sistemas de Informação, onde também colaborou na definição dos processos da empresa. Atuou em um projeto de consultoria com o prof. Carlos A. Heuser na área de extração de dados não estruturados da Web. Tem conhecimentos avançados em Orientação a Objetos, Modelagem Relacional, Banco de Dados Temporal, Modelagem Temporal, Técnicas de Recuperação de Informação, Motores de Busca, Bibliotecas Digitais e Extração de Dados da Web. Possui experiência com as seguintes linguagens: SQL, HTML, Java, PHP, Javascript, XML, XQuery e Cypher. Além disso, já estudou as seguintes linguagens: C, FLEX e Ruby. Já recebeu vários prêmios, tais como: Aluno Destaque da turma de 2008 e Melhor Ferramenta no SBBD 2009.</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -4998,7 +4957,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>ANGELO AUGUSTO FROZZA CONCLUIU MESTRADO EM CIENCIA DA COMPUTACAO PELA UNIVERSIDADE FEDERAL DE SANTA CATARINA (UFSC) EM 2007. É PROFESSOR EFETIVO NO INSTITUTO FEDERAL CATARINENSE - CAMPUS CAMBORIÚ. ATUALMENTE ESTÁ LICENCIADO PARA CURSAR DOUTORADO PELA UFSC. PUBLICOU ARTIGOS EM PERIODICOS ESPECIALIZADOS E TRABALHOS EM ANAIS DE EVENTOS. PUBLICOU 1 LIVRO e 1 CAPÍTULO DE LIVRO INTERNACIONAL. POSSUI 1 SOFTWARE E OUTROS ITENS DE PRODUCAO TECNICA. PARTICIPOU DE EVENTOS NO BRASIL. ORIENTOU TRABALHOS DE INICIACAO CIENTIFICA, MONOGRAFIA DE ESPECIALIZAÇÃO E TRABALHOS DE CONCLUSAO DE CURSO NAS AREAS DE EDUCACAO, CIENCIA DA COMPUTACAO E MATEMATICA. RECEBEU DIVERSOS PREMIOS E HOMENAGENS. PARTICIPOU DE PROJETOS DE PESQUISA. ATUA NA AREA DE CIENCIA DA COMPUTACAO, COM ENFASE EM BANCO DE DADOS E SISTEMAS DE INFORMACAO. EM SUAS ATIVIDADES PROFISSIONAIS INTERAGIU COM INUMEROS COLABORADORES EM CO-AUTORIAS DE TRABALHOS CIENTIFICOS. EM SEU CURRICULO LATTES OS TERMOS MAIS FREQUENTES NA CONTEXTUALIZACAO DA PRODUCAO CIENTIFICA, TECNOLOGICA E ARTISTICO-CULTURAL SAO: BANCO DE DADOS, INFORMATICA, INTERNET, EDUCACAO, CIENCIAS DA COMPUTACAO, EMPREENDEDORISMO, INOVACAO E TECNOLOGIA.</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5031,11 +4990,7 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
           <t>27-04-2005</t>
@@ -5068,7 +5023,8 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Mestre em Ciência da Computação pela Universidade Federal do Paraná. MBA em Gestão e Liderança pela Estação Business School.
+Atua como analista de sistemas da Companhia Paranaense de Energia e também como professor adjunto da Faculdade de Educação Superior do Paraná (FESP). Tem experiência profissional na área de desenvolvimento de sistemas bancários na plataforma Mainframe e atualmente desenvolve aplicações Web em Java para a área de engenharia da distribuição. Na área acadêmica tem experiência nas áreas de Banco de dados, Algoritmos, Lógica para computação, Linguagens de Programação e Paradigmas de programação.</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5103,7 +5059,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciência da Computação pela Universidade Federal de Santa Maria (2010). Atualmente é mestranda na Universidade Federal de Santa Catarina na área de Banco de Dados.</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5130,7 +5086,13 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Mestrando em direito pela Universidade Federal de Mato Grosso. Graduado em Direito pela Universidade de Cuiabá (2015) e graduado em Processamento de Dados pela Faculdade de Informática de Cuiabá (2000). Pós-graduado em Direito Eleitoral, Governança de TI e em Banco de Dados. Certificado internacional ITIL.
+Tem experiência na área de Direito, com ênfase em Direito Administrativo (contratos e licitações).
+Autor da ferramenta gratuita brModelo (desenvolvida sob a orientação do Prof. Dr. Ronaldo dos Santos Mello - UFSC), utilizada nas instituições de ensino superiores por alunos da disciplina de banco de dados relacionais; atualmente com mais de 400.000 downloads.
+Publicou o artigo sobe a ferramenta brModelo no ERDB 2017.
+Publicou o artigo sobre Gerenciamento de Risco em Segurança da Informação no V FORTI - TSE 2017.
+Publicação do capítulo de livro: Direito Eleitoral - Temas Relevantes - Crowdfunding.
+Atualmente ocupa a Coordenadoria de Infraestrutura Computacional no TRE-MT.</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5163,11 +5125,7 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
           <t>31-12-2008</t>
@@ -5200,7 +5158,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciência da Computação pela Universidade Estadual Paulista Júlio de Mesquita Filho (UNESP); mestrado em Ciência da Computação pela Universidade Estadual Paulista Júlio de Mesquita Filho (UNESP). Tem experiência na área de Ciência da Computação, especificamente em Banco de Dados e Processamento de Linguagens Naturais.</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5235,7 +5193,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Graduação em Ciência da Computação pela Universidade de Cruz Alta (2000), Especialização em Sistema de Informação pela UPF (2004) e mestrado em Engenharia de Produção - Área Concentração: Tecnologia da Informação pela Universidade Federal de Santa Maria - UFSM (2008). Tem experiência na área de Ciência da Computação, com ênfase em Algoritmo, Linguagem C, Orientação a Objetos, Java. Professor da Universidade de Cruz Alta - UNICRUZ nas disciplinas de Programação Estruturada e Estrutura de Dados I (02/2008). Desenvolveu sistemas em Delphi, como: sysSaude, sysProtocolo, sysVenda, sysBiblioteca BD MySQL. Atuou como bolsista CNPQ no INPE - CRS Instituto Nacional de Pesquisas Espaciais - Centro Regional Sul, onde participou do Núcleo de Pesquisas e Aplicações de Geotecnologias em Desastres Naturais e Eventos Extremos - GEODESTRES, sendo responsável pelo Banco de Dados desse Grupo. Professor da Faculdade Meridional - IMED - Passo Fundo RS - disciplinas Laboratório de Sistemas Web, Laboratório SO e Sistemas Operacionais em 01/2011. Atual: Professor Curso Técnico em Informática - Disciplinas. Desenvolvimento Web (html, css, javascript, jQuery, php).</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5268,11 +5226,7 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
           <t>23-08-2005</t>
@@ -5305,7 +5259,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação(2007) e é mestrando em Ciências da Computação pela Universidade Federal do Paraná. Tem experiência na área de Ciência da Computação, com ênfase em Banco de Dados. Atualmente é diretor de tecnologia na empresa Youse Technologies, onde coordena e desenvolve trabalhos com foco na inovação e integração de aplicações.</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5340,7 +5294,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação (2000), mestrado (2002) e doutorado (2006) em Engenharia Elétrica pela Universidade Federal de Santa Maria com ênfase em Processamento de Energia Elétrica. Foi professor e coordenador do Curso de Engenharia Elétrica da UNIJUI e professor do mestrado em Modelagem Matemática. Também foi coordenador do Curso de Engenharia de Controle e Automação da Universidade Federal de Santa Maria (UFSM). Atualmente, é Chefe do Departamento de Processamento de Energia Elétrica (UFSM) e também é professor do Programa de Pós-Graduação em Engenharia Elétrica. Entre suas áreas de interesse destacam-se: pequenas centrais hidrelétricas, DSTATCOM, métodos de sincronização de conversores, filtros ativos de potência e retificadores PWM trifásicos. É membro da Sociedade Brasileira de Eletrônica de Potência (SOBRAEP).</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5402,7 +5356,9 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Engenharia Elétrica pelo Instituto Maua de Tecnologia (2003), especialização em Telecomunicações pela UNICAMP (2006) e mestrado em Engenharia da Computação pelo Instituto de Pesquisas Tecnológicas do Estado de São Paulo (2012). Tem experiência na área de Ciência da Computação, com ênfase em Software Básico. 
+Experiência atual: Análise de requisitos da área de negócios e construção de processos ETL´s (extração, transformação e carga) de dados para gestão e inteligência do business de risco de crédito - empresa Itaú Unibanco.. 
+Experiência em gerenciamento de projetos.</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5437,7 +5393,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Acadêmico de Ciência da Computação pela Universidade Federal da Fronteira Sul (UFFS). Tem experiência na área de Ciência da Computação, com ênfase em Engenharia de Software e Banco de Dados, atuando principalmente nos seguintes temas: Integração de Dados, Métodos Ágeis, Startups de Software e Cidades Inteligentes. Em 2017, fui agraciado com o prêmio 1st Citizen Empowerment Award pela IEEE. Além disso, fui embaixador internacional da University of Limerick (UL), Diretor de Projetos da empresa Júnior (FronteiraTec), Growth Hacking Engineer, Pesquisador assistente no Irish Software Engineering Research Centre (LERO), Desenvolvedor Mobile (FronteiraTec), Presidente do Centro Acadêmico do curso de Ciência da Computação (UFFS) e Bolsista da Higher Education Authority (HEA) e CAPES durante o ano de intercâmbio na Irlanda pelo programa Ciência sem Fronteiras (CAPES 138/2013).</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5507,7 +5463,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Doutor pela Escola Politécnica USP-SP, departamento de Engenharia Elétrica, área de SISTEMAS DE BANCOS DE DADOS (2007). Mestre pela Unesp - Marília, departamento de Ciência Cognitiva e Filosofia da Mente (2002), área de Redes Neurais Artificiais. Especialista pela Unoeste - Presidente Prudente, em SISTEMAS DE INFORMAÇÃO (Banco de Dados Distribuídos) (1996). Graduado pela FEMA/IMESA-Instituto Municipal de Ensino Superior de Assis, em Tecnologia em Processamento de Dados (1992). Atualmente é Coordenador e Docente dos Cursos de Ciência da Computação e de Análise e Desenvolvimento de Sistemas da Fundação Educacional do Município de Assis - FEMA. Titular das disciplinas de Banco de Dados I e II, e Introdução à Lógica a mais de 15 anos. Administrativamente tem a função de Coordenador de Pesquisa e Desenvolvimento, Representante de IC/CNPq (PIBIC/PIBITI) e Supervisor de TCC. Tem experiência na área de Sistemas de Bancos de Dados, SQL, PL/SQL, Bancos de Dados Temporais, Data Warehouse, Flashback, Migração de Dados, Modelagem e Projeto de Banco de Dados (IDEF1X), Lógica. É Especialista do CEE - Conselho Estadual de Educação, com a função de Avaliador de Curso.</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5571,11 +5527,7 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>SEM_DADOS</t>
-        </is>
-      </c>
+      <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
           <t>21-10-2015</t>
@@ -5608,7 +5560,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Juliana Bonato dos Santos possui  graduação em Ciência da Computação pela Universidade Federal do Rio Grande do Sul (2005) e mestrado em Ciência da Computação pela Universidade Federal do Rio Grande do Sul (2008) na área de Sistemas de Informação. Como funcionária concursada do Tribunal Regional Federal da 4ª Região, trabalha na análise e desenvolvimento do Sistema de Processo Eletrônico utilizado no âmbito da Justiça Federal da 4ª Região.</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5643,7 +5595,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Professor do Instituto Federal Catarinense. Líder do grupo de pesquisa Gestão do Conhecimento. Possui graduação em Bacharelado em Análise de Sistemas pela Pontifícia Universidade Católica do Paraná (2002) e mestrado em Informática Aplicada pela Pontifícia Universidade Católica do Paraná (2006). Atuação na área de Ciência da Computação, com interesse principal em metodologias e desenvolvimento de sistemas de informação. Atuação e participação em pesquisa e desenvolvimento de sistemas computacionais, utilizando técnicas de inteligência artificial. Interesse nos seguintes temas: metodologias e técnicas de desenvolvimento de sistemas, mineração de dados, mineração de dados distribuídos, aplicações de lógicas não triviais para validação de conhecimento e aprendizagem de máquina.Atuação como bolsista de produtividade CNPQ nível 6B</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5705,7 +5657,7 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Graduanda do curso de Bacharelado em Sistemas de Informação, já estagiou na Caixa Econômica Federal no período de fev/2015 à dez/2015.</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5740,7 +5692,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui Mestrado em Ciência da Computação pela Universidade Federal de Santa Catarina (UFSC) desde 2016. Cursando doutorado no Programa de Pós-Graduação em Ciências da Computação (PPGCC) pela Universidade Federal de Santa Catarina (UFSC). Sua área de pesquisa é bancos de dados, com foco de interesse em sistemas de recomendação e tecnologias da web semântica.</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5775,7 +5727,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciências da Computação pela Universidade Federal do Paraná (2001), mestrado em Informática pela Universidade Federal do Paraná (2005) e doutorado em Ciências da Computação pela Universidade Estadual de Campinas (2011). No período de fevereiro/2010 a setembro/2010 fez doutorando sanduíche, no Digital Library Research Laboratory (DLIB), na Virginia Polytechnic Institute and State University (EUA). Trabalhou em projetos de P&amp;amp;D na área de telefonia na IBM (2006-2012); e na Compania Paranaense de Energia (Copel/Simepar), na área de meteorologia (1999 -2004). Atualmente é professora associada da Universidade Tecnológica Federal do Paraná (UTFPR), câmpus Curitiba. Atua como professor permanente no Programa de Pós-Graduação em Computação Aplicada (PPGCA, UTFPR). Tem experiência na área de Ciência da Computação, com ênfase em Banco de Dados. Seus interesses englobam cidades inteligentes, bibliotecas digitais, GIS e recuperação de informação baseada em conteúdo. Líder de projeto EU-BR H2020 na UTFPR sobre Big Data. Atua como voluntária em prol do incentivo do ensino de computação para meninas de segundo grau.</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5810,7 +5762,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Atualmente é Bacharel em Ciência da Computação pela Universidade do Estado de Santa Catarina. Atua profissionalmente como Analista de Sistemas na Maxximo Fidelidade S/A.</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -5845,7 +5797,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Mestre em Ciência da Computação pela Universidade Federal de Santa Maria (UFSM) (2017) na linha de pesquisa de Banco de Dados. Bacharel em Ciência da Computação pela URI - Campus Santiago/ RS (2014) onde obteve Láurea Acadêmica, com média geral - 9,29. Também possui licenciatura em Formação de Professores para Educação Profissional e Tecnológica (2017) pela UFSM. Tem interesse de pesquisa em bancos de dados NoSQL, mineração de dados, integração de dados, recuperação de informação, programação e jogos educacionais.</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -5880,7 +5832,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Analista de suporte na Universidade do Estado de Santa Catarina (UDESC) e coordenadora de informática no Centro de Educação a Distância (CEAD/UDESC). Possui graduação em Sistemas de Informação (com ênfase em redes de computadores) pela Sociedade Educacional de Santa Catarina (2009) e mestrado (2011) e doutorado (2016) em Informática pela Universidade Federal do Paraná. Suas áreas de interesse são redes de computadores, redes centradas em informação, segurança em aplicações de rede e protocolos e infraestruturas de rede para assistência em cenários críticos. Atuou como professora substituta no Instituto Federal de Santa Catarina para as disciplinas de redes de computadores no ensino técnico e superior (2015). Possui o reconhecimento de melhor dissertação de mestrado do biênio 2012-2014, pelo II Concurso de Teses e Dissertações do Simpósio Brasileiro de Segurança da Informação e de Sistemas Operacionais, 2012 e finalista no IV Concurso de Teses e Dissertações em Segurança. É membro da equipe campeã do desafio OEA Cyberwomen Challenge, realizado em Florianópolis (2018).</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -5915,7 +5867,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Formou-se Bacharel em Ciência da Computação pela Universidade Estadual de Santa Cruz (2015). Obteve seu mestrado em Ciência da Computação pela Universidade Federal da Bahia (2017) e atualmente é aluno de doutorado pela mesma instituição. Tem atuado na área de Ciência da Computação com Processamento de Linguagem Natural, com ênfase em análise semântica e pragmática, aplicadas à Extração de Informação Aberta. Também possui experiência com Aprendizado de Máquina, Mineração de Textos e Mineração de Dados, com destaque para tarefas de classificação. Também possui conhecimentos em Banco de Dados relacionais.</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -5950,7 +5902,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Processamento de Dados pelo Centro Estadual de Educação Tecnológica Paula Souza (1999) e mestrado em Ciência da Computação pela Universidade Estadual de Londrina (2016). Atualmente é coordenador de curso do Centro Estadual de Educação Tecnológica Paula Souza e professor associado do Centro Estadual de Educação Tecnológica Paula Souza. Tem experiência na área de Ciência da Computação, com ênfase em Sistemas de Informação, atuando principalmente nos seguintes temas: aprendizado de máquina, segurança informação, análise de sentimentos, reconhecimento de voz e mineração de textos.</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -5985,7 +5937,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Mestre em Ciência da Computação pela Universidade Federal de Santa Catarina (UFSC) em 2016 e graduado em Ciência da Computação pela Universidade Federal da Fronteira Sul em 2014. Atualmente cursa Doutorado em Ciência da Computação na UFSC. Atua na área de Banco de Dados com ênfase em integração e interoperabilidade de dados, bancos de dados NoSQL e NewSQL.</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6055,7 +6007,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Possui graduação em Ciência da Computação pela Universidade do Sul de Santa Catarina (1999). Analista de Sistemas do Tribunal de Justiça do Estado de Santa Catarina. Tem experiência na área de Ciência da Computação, com ênfase em Linguagens de Programação, atuando principalmente nos seguintes temas: engenharia de software, banco de dados, padrões de projeto, gerência e configuração, modelagem de informações e prática ágil para o desenvolvimento de soluções de software. Interesse em pesquisa do tema envolvendo web semântica, inferência sobre ontologias, recuperação, integração e mediação de informações. Atuou como Chefe de Seção no Tribunal de Justiça a frente de projetos de integração de informações com o CNJ e Tribunais Superiores. Leigo possui interesse em temas econômicos e jurídicos bem como seus desdobramentos para a sociedade.</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6090,7 +6042,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>SEM_DADOS</t>
+          <t>Professor Adjunto (DE) da Universidade Federal de Alagoas (Penedo), possui doutorado e mestrado em Ciência da Computação pela Universidade Federal de Pernambuco. Atuou como Analista de Sistemas e Coordenador de TI na área Informática em Saúde de 2003 a 2014. Desde 2002 é professor de ensino superior em cursos de Graduação e Pós-Graduação. Tem experiência na área de Ciência da Computação, com ênfase em Linguagens de Programação, Banco de Dados, Engenharia de Software, Modelagem de Dados e Desenvolvimento de Sistemas.</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
